--- a/R/CH83-ClassificationTask/File4.xlsx
+++ b/R/CH83-ClassificationTask/File4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafrocBook/R/CH83-ClassificationTask/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DD8F62-0506-2045-87D3-210D1AFBF71A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6107736-9E67-B740-9370-251CBB99B73E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13060" yWindow="5580" windowWidth="10000" windowHeight="8040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>ClassTrue</t>
   </si>
   <si>
-    <t>ClassRx</t>
-  </si>
-  <si>
     <t>CL-IC</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>ClassDx</t>
   </si>
 </sst>
 </file>
@@ -1673,7 +1673,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1693,10 +1693,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1716,10 +1716,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1739,10 +1739,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1759,13 +1759,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1785,10 +1785,10 @@
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1808,10 +1808,10 @@
         <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1831,10 +1831,10 @@
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1854,10 +1854,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1877,10 +1877,10 @@
         <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1897,13 +1897,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1923,10 +1923,10 @@
         <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1946,10 +1946,10 @@
         <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1966,13 +1966,13 @@
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1992,10 +1992,10 @@
         <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2015,10 +2015,10 @@
         <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2035,13 +2035,13 @@
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2061,10 +2061,10 @@
         <v>18</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2084,10 +2084,10 @@
         <v>21</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2105,8 +2105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2137,7 +2137,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2154,16 +2154,16 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2180,13 +2180,13 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2203,13 +2203,13 @@
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2226,13 +2226,13 @@
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2249,13 +2249,13 @@
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2272,13 +2272,13 @@
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2295,13 +2295,13 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2318,13 +2318,13 @@
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2341,13 +2341,13 @@
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2364,13 +2364,13 @@
         <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2387,13 +2387,13 @@
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2410,13 +2410,13 @@
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2433,13 +2433,13 @@
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2456,13 +2456,13 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2479,13 +2479,13 @@
         <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2502,13 +2502,13 @@
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2525,13 +2525,13 @@
         <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2548,13 +2548,13 @@
         <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2603,10 +2603,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2620,16 +2620,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2643,16 +2643,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2666,14 +2666,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2687,14 +2687,14 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2708,14 +2708,14 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2729,14 +2729,14 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2750,14 +2750,14 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
